--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -21,13 +21,31 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Address</x:t>
+    <x:t>Street Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post Code</x:t>
   </x:si>
   <x:si>
     <x:t>John Doe</x:t>
   </x:si>
   <x:si>
-    <x:t>Address { Number = 900, Street = Victoria Square, City = Adelaide, State = SA, PostCode = 5000 }</x:t>
+    <x:t>Victoria Square</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adelaide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -382,7 +400,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -391,27 +409,55 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="50.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="1">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="1">
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:B2"/>
+  <x:autoFilter ref="A1:F2"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
@@ -416,7 +416,7 @@
     <x:col min="6" max="6" width="14.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -436,7 +436,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" ht="14.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
@@ -408,12 +408,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.424911" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.282054" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="14.25" customHeight="1">
